--- a/Cálculo Grupo CSora.xlsx
+++ b/Cálculo Grupo CSora.xlsx
@@ -548,28 +548,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F2" t="n">
         <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.613733107265447</v>
+        <v>3.174384140960309</v>
       </c>
       <c r="I2" t="n">
         <v>297.5</v>
       </c>
       <c r="J2" t="n">
-        <v>227.5</v>
+        <v>164.5</v>
       </c>
       <c r="K2" t="n">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1221.907912481483</v>
+        <v>231.7320609374426</v>
       </c>
       <c r="O2" t="n">
-        <v>1588.480286225928</v>
+        <v>301.2516792186753</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.24650041768941</v>
+        <v>13.19874624793611</v>
       </c>
       <c r="R2" t="n">
-        <v>2.484329682308021</v>
+        <v>8.111610763379527</v>
       </c>
       <c r="S2" t="n">
-        <v>226.9257551751326</v>
+        <v>43.03595417409648</v>
       </c>
       <c r="T2" t="n">
-        <v>201.2615328636593</v>
+        <v>61.64003853060694</v>
       </c>
     </row>
   </sheetData>
